--- a/raw_data/legislatives2024_t1_9213.xlsx
+++ b/raw_data/legislatives2024_t1_9213.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GI93"/>
+  <dimension ref="A1:GQ93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,6 +1382,46 @@
       <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>Elu 19</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>Gaillard</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>Bregeon</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>Isnard</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>Yvars</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>Participation</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>id_bv</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>id_bv2</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>nomBureauVote</t>
         </is>
       </c>
     </row>
@@ -1839,6 +1879,36 @@
       <c r="GG2" t="inlineStr"/>
       <c r="GH2" t="inlineStr"/>
       <c r="GI2" t="inlineStr"/>
+      <c r="GJ2" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>47.91</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="GO2" t="inlineStr">
+        <is>
+          <t>92002_0001</t>
+        </is>
+      </c>
+      <c r="GP2" t="inlineStr">
+        <is>
+          <t>92002_1</t>
+        </is>
+      </c>
+      <c r="GQ2" t="inlineStr">
+        <is>
+          <t>001 HOTEL DE VILLE SALLE DU CONSEIL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2294,6 +2364,36 @@
       <c r="GG3" t="inlineStr"/>
       <c r="GH3" t="inlineStr"/>
       <c r="GI3" t="inlineStr"/>
+      <c r="GJ3" t="n">
+        <v>33.52</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>48.38</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>83.47</v>
+      </c>
+      <c r="GO3" t="inlineStr">
+        <is>
+          <t>92002_0002</t>
+        </is>
+      </c>
+      <c r="GP3" t="inlineStr">
+        <is>
+          <t>92002_2</t>
+        </is>
+      </c>
+      <c r="GQ3" t="inlineStr">
+        <is>
+          <t>002 ECOLE ELEM F BUISSON PREAU</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2749,6 +2849,36 @@
       <c r="GG4" t="inlineStr"/>
       <c r="GH4" t="inlineStr"/>
       <c r="GI4" t="inlineStr"/>
+      <c r="GJ4" t="n">
+        <v>37.74</v>
+      </c>
+      <c r="GK4" t="n">
+        <v>42.35</v>
+      </c>
+      <c r="GL4" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="GM4" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="GN4" t="n">
+        <v>80.09</v>
+      </c>
+      <c r="GO4" t="inlineStr">
+        <is>
+          <t>92002_0003</t>
+        </is>
+      </c>
+      <c r="GP4" t="inlineStr">
+        <is>
+          <t>92002_3</t>
+        </is>
+      </c>
+      <c r="GQ4" t="inlineStr">
+        <is>
+          <t>003 ECOLE ELEM VELPEAU REFECTOIRE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3204,6 +3334,36 @@
       <c r="GG5" t="inlineStr"/>
       <c r="GH5" t="inlineStr"/>
       <c r="GI5" t="inlineStr"/>
+      <c r="GJ5" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="GK5" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="GL5" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="GM5" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="GN5" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="GO5" t="inlineStr">
+        <is>
+          <t>92002_0004</t>
+        </is>
+      </c>
+      <c r="GP5" t="inlineStr">
+        <is>
+          <t>92002_4</t>
+        </is>
+      </c>
+      <c r="GQ5" t="inlineStr">
+        <is>
+          <t>004 ECOLE MATER VELPEAU SALLE DE JEUX</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -3659,6 +3819,36 @@
       <c r="GG6" t="inlineStr"/>
       <c r="GH6" t="inlineStr"/>
       <c r="GI6" t="inlineStr"/>
+      <c r="GJ6" t="n">
+        <v>35.91</v>
+      </c>
+      <c r="GK6" t="n">
+        <v>42.27</v>
+      </c>
+      <c r="GL6" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="GM6" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="GN6" t="n">
+        <v>82.12</v>
+      </c>
+      <c r="GO6" t="inlineStr">
+        <is>
+          <t>92002_0005</t>
+        </is>
+      </c>
+      <c r="GP6" t="inlineStr">
+        <is>
+          <t>92002_5</t>
+        </is>
+      </c>
+      <c r="GQ6" t="inlineStr">
+        <is>
+          <t>005 ECOLE MATER VELPEAU REFECTOIRE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -4114,6 +4304,36 @@
       <c r="GG7" t="inlineStr"/>
       <c r="GH7" t="inlineStr"/>
       <c r="GI7" t="inlineStr"/>
+      <c r="GJ7" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="GK7" t="n">
+        <v>49.32</v>
+      </c>
+      <c r="GL7" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="GM7" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="GN7" t="n">
+        <v>79.52</v>
+      </c>
+      <c r="GO7" t="inlineStr">
+        <is>
+          <t>92002_0006</t>
+        </is>
+      </c>
+      <c r="GP7" t="inlineStr">
+        <is>
+          <t>92002_6</t>
+        </is>
+      </c>
+      <c r="GQ7" t="inlineStr">
+        <is>
+          <t>006 MAISON DES ANS TONIQUES</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -4569,6 +4789,36 @@
       <c r="GG8" t="inlineStr"/>
       <c r="GH8" t="inlineStr"/>
       <c r="GI8" t="inlineStr"/>
+      <c r="GJ8" t="n">
+        <v>33.77</v>
+      </c>
+      <c r="GK8" t="n">
+        <v>41.48</v>
+      </c>
+      <c r="GL8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="GM8" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="GN8" t="n">
+        <v>78.76000000000001</v>
+      </c>
+      <c r="GO8" t="inlineStr">
+        <is>
+          <t>92002_0007</t>
+        </is>
+      </c>
+      <c r="GP8" t="inlineStr">
+        <is>
+          <t>92002_7</t>
+        </is>
+      </c>
+      <c r="GQ8" t="inlineStr">
+        <is>
+          <t>007 ECOLE MATERNELLE JEAN MOULIN</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -5024,6 +5274,36 @@
       <c r="GG9" t="inlineStr"/>
       <c r="GH9" t="inlineStr"/>
       <c r="GI9" t="inlineStr"/>
+      <c r="GJ9" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="GK9" t="n">
+        <v>36.51</v>
+      </c>
+      <c r="GL9" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="GM9" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="GN9" t="n">
+        <v>75.76000000000001</v>
+      </c>
+      <c r="GO9" t="inlineStr">
+        <is>
+          <t>92002_0008</t>
+        </is>
+      </c>
+      <c r="GP9" t="inlineStr">
+        <is>
+          <t>92002_8</t>
+        </is>
+      </c>
+      <c r="GQ9" t="inlineStr">
+        <is>
+          <t>008 ECOLE MATERNELLE LA FONTAINE PREAU</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -5479,6 +5759,36 @@
       <c r="GG10" t="inlineStr"/>
       <c r="GH10" t="inlineStr"/>
       <c r="GI10" t="inlineStr"/>
+      <c r="GJ10" t="n">
+        <v>44.35</v>
+      </c>
+      <c r="GK10" t="n">
+        <v>35.31</v>
+      </c>
+      <c r="GL10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="GM10" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="GN10" t="n">
+        <v>75.51000000000001</v>
+      </c>
+      <c r="GO10" t="inlineStr">
+        <is>
+          <t>92002_0009</t>
+        </is>
+      </c>
+      <c r="GP10" t="inlineStr">
+        <is>
+          <t>92002_9</t>
+        </is>
+      </c>
+      <c r="GQ10" t="inlineStr">
+        <is>
+          <t>009 ECOLE ELEM LA FONTAINE REFECTOIRE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -5934,6 +6244,36 @@
       <c r="GG11" t="inlineStr"/>
       <c r="GH11" t="inlineStr"/>
       <c r="GI11" t="inlineStr"/>
+      <c r="GJ11" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="GK11" t="n">
+        <v>42.16</v>
+      </c>
+      <c r="GL11" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="GM11" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="GN11" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="GO11" t="inlineStr">
+        <is>
+          <t>92002_0010</t>
+        </is>
+      </c>
+      <c r="GP11" t="inlineStr">
+        <is>
+          <t>92002_10</t>
+        </is>
+      </c>
+      <c r="GQ11" t="inlineStr">
+        <is>
+          <t>010 ECOLE MATERNELLE ANDRE PASQUIER</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -6389,6 +6729,36 @@
       <c r="GG12" t="inlineStr"/>
       <c r="GH12" t="inlineStr"/>
       <c r="GI12" t="inlineStr"/>
+      <c r="GJ12" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="GK12" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="GL12" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="GM12" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="GN12" t="n">
+        <v>83.73999999999999</v>
+      </c>
+      <c r="GO12" t="inlineStr">
+        <is>
+          <t>92002_0011</t>
+        </is>
+      </c>
+      <c r="GP12" t="inlineStr">
+        <is>
+          <t>92002_11</t>
+        </is>
+      </c>
+      <c r="GQ12" t="inlineStr">
+        <is>
+          <t>011 ECOLE MATER F BUISSON PREAU</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -6844,6 +7214,36 @@
       <c r="GG13" t="inlineStr"/>
       <c r="GH13" t="inlineStr"/>
       <c r="GI13" t="inlineStr"/>
+      <c r="GJ13" t="n">
+        <v>32.88</v>
+      </c>
+      <c r="GK13" t="n">
+        <v>44.25</v>
+      </c>
+      <c r="GL13" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="GM13" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="GN13" t="n">
+        <v>77.12</v>
+      </c>
+      <c r="GO13" t="inlineStr">
+        <is>
+          <t>92002_0012</t>
+        </is>
+      </c>
+      <c r="GP13" t="inlineStr">
+        <is>
+          <t>92002_12</t>
+        </is>
+      </c>
+      <c r="GQ13" t="inlineStr">
+        <is>
+          <t>012 ECOLE ELEM F BUISSON BIBLIOTHEQ</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -7299,6 +7699,36 @@
       <c r="GG14" t="inlineStr"/>
       <c r="GH14" t="inlineStr"/>
       <c r="GI14" t="inlineStr"/>
+      <c r="GJ14" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="GK14" t="n">
+        <v>45.29</v>
+      </c>
+      <c r="GL14" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="GM14" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="GN14" t="n">
+        <v>80.13</v>
+      </c>
+      <c r="GO14" t="inlineStr">
+        <is>
+          <t>92002_0013</t>
+        </is>
+      </c>
+      <c r="GP14" t="inlineStr">
+        <is>
+          <t>92002_13</t>
+        </is>
+      </c>
+      <c r="GQ14" t="inlineStr">
+        <is>
+          <t>013 HOTEL DE VILLE SALON D HONNEUR</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -7754,6 +8184,36 @@
       <c r="GG15" t="inlineStr"/>
       <c r="GH15" t="inlineStr"/>
       <c r="GI15" t="inlineStr"/>
+      <c r="GJ15" t="n">
+        <v>32</v>
+      </c>
+      <c r="GK15" t="n">
+        <v>46.62</v>
+      </c>
+      <c r="GL15" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="GM15" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="GN15" t="n">
+        <v>80.64</v>
+      </c>
+      <c r="GO15" t="inlineStr">
+        <is>
+          <t>92002_0014</t>
+        </is>
+      </c>
+      <c r="GP15" t="inlineStr">
+        <is>
+          <t>92002_14</t>
+        </is>
+      </c>
+      <c r="GQ15" t="inlineStr">
+        <is>
+          <t>014 ECOLE ELEMENTAIRE J FERRY PREAU</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -8209,6 +8669,36 @@
       <c r="GG16" t="inlineStr"/>
       <c r="GH16" t="inlineStr"/>
       <c r="GI16" t="inlineStr"/>
+      <c r="GJ16" t="n">
+        <v>29.65</v>
+      </c>
+      <c r="GK16" t="n">
+        <v>44.67</v>
+      </c>
+      <c r="GL16" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="GM16" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="GN16" t="n">
+        <v>79</v>
+      </c>
+      <c r="GO16" t="inlineStr">
+        <is>
+          <t>92002_0015</t>
+        </is>
+      </c>
+      <c r="GP16" t="inlineStr">
+        <is>
+          <t>92002_15</t>
+        </is>
+      </c>
+      <c r="GQ16" t="inlineStr">
+        <is>
+          <t>015 ECOLE ELEM J FERRY REFECTOIRE</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -8664,6 +9154,36 @@
       <c r="GG17" t="inlineStr"/>
       <c r="GH17" t="inlineStr"/>
       <c r="GI17" t="inlineStr"/>
+      <c r="GJ17" t="n">
+        <v>34.62</v>
+      </c>
+      <c r="GK17" t="n">
+        <v>39.85</v>
+      </c>
+      <c r="GL17" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="GM17" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="GN17" t="n">
+        <v>78.76000000000001</v>
+      </c>
+      <c r="GO17" t="inlineStr">
+        <is>
+          <t>92002_0016</t>
+        </is>
+      </c>
+      <c r="GP17" t="inlineStr">
+        <is>
+          <t>92002_16</t>
+        </is>
+      </c>
+      <c r="GQ17" t="inlineStr">
+        <is>
+          <t>016 ECOLE MATERNELLE J FERRY PREAU</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -9119,6 +9639,36 @@
       <c r="GG18" t="inlineStr"/>
       <c r="GH18" t="inlineStr"/>
       <c r="GI18" t="inlineStr"/>
+      <c r="GJ18" t="n">
+        <v>30.92</v>
+      </c>
+      <c r="GK18" t="n">
+        <v>43.98</v>
+      </c>
+      <c r="GL18" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="GM18" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="GN18" t="n">
+        <v>79.39</v>
+      </c>
+      <c r="GO18" t="inlineStr">
+        <is>
+          <t>92002_0017</t>
+        </is>
+      </c>
+      <c r="GP18" t="inlineStr">
+        <is>
+          <t>92002_17</t>
+        </is>
+      </c>
+      <c r="GQ18" t="inlineStr">
+        <is>
+          <t>017 ECOLE ELEM E BLANGUERNON PREAU</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -9574,6 +10124,36 @@
       <c r="GG19" t="inlineStr"/>
       <c r="GH19" t="inlineStr"/>
       <c r="GI19" t="inlineStr"/>
+      <c r="GJ19" t="n">
+        <v>31.99</v>
+      </c>
+      <c r="GK19" t="n">
+        <v>48.06</v>
+      </c>
+      <c r="GL19" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="GM19" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="GN19" t="n">
+        <v>82.56999999999999</v>
+      </c>
+      <c r="GO19" t="inlineStr">
+        <is>
+          <t>92002_0018</t>
+        </is>
+      </c>
+      <c r="GP19" t="inlineStr">
+        <is>
+          <t>92002_18</t>
+        </is>
+      </c>
+      <c r="GQ19" t="inlineStr">
+        <is>
+          <t>018 ECOLE ELEM E BLANGUERNON REFECT</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -10029,6 +10609,36 @@
       <c r="GG20" t="inlineStr"/>
       <c r="GH20" t="inlineStr"/>
       <c r="GI20" t="inlineStr"/>
+      <c r="GJ20" t="n">
+        <v>32.34</v>
+      </c>
+      <c r="GK20" t="n">
+        <v>38.16</v>
+      </c>
+      <c r="GL20" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="GM20" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="GN20" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="GO20" t="inlineStr">
+        <is>
+          <t>92002_0019</t>
+        </is>
+      </c>
+      <c r="GP20" t="inlineStr">
+        <is>
+          <t>92002_19</t>
+        </is>
+      </c>
+      <c r="GQ20" t="inlineStr">
+        <is>
+          <t>019 ECOLE MATERNELLE ANDRE CHENIER</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -10484,6 +11094,36 @@
       <c r="GG21" t="inlineStr"/>
       <c r="GH21" t="inlineStr"/>
       <c r="GI21" t="inlineStr"/>
+      <c r="GJ21" t="n">
+        <v>36.61</v>
+      </c>
+      <c r="GK21" t="n">
+        <v>44.28</v>
+      </c>
+      <c r="GL21" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="GM21" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="GN21" t="n">
+        <v>81.45</v>
+      </c>
+      <c r="GO21" t="inlineStr">
+        <is>
+          <t>92002_0020</t>
+        </is>
+      </c>
+      <c r="GP21" t="inlineStr">
+        <is>
+          <t>92002_20</t>
+        </is>
+      </c>
+      <c r="GQ21" t="inlineStr">
+        <is>
+          <t>020 ECOLE ELEM E BLANGUERNON PREAU</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -10939,6 +11579,36 @@
       <c r="GG22" t="inlineStr"/>
       <c r="GH22" t="inlineStr"/>
       <c r="GI22" t="inlineStr"/>
+      <c r="GJ22" t="n">
+        <v>32.74</v>
+      </c>
+      <c r="GK22" t="n">
+        <v>45.02</v>
+      </c>
+      <c r="GL22" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="GM22" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="GN22" t="n">
+        <v>77.28</v>
+      </c>
+      <c r="GO22" t="inlineStr">
+        <is>
+          <t>92002_0021</t>
+        </is>
+      </c>
+      <c r="GP22" t="inlineStr">
+        <is>
+          <t>92002_21</t>
+        </is>
+      </c>
+      <c r="GQ22" t="inlineStr">
+        <is>
+          <t>021 CENTRE DE LOISIRS DU PARC HELLER</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -11394,6 +12064,36 @@
       <c r="GG23" t="inlineStr"/>
       <c r="GH23" t="inlineStr"/>
       <c r="GI23" t="inlineStr"/>
+      <c r="GJ23" t="n">
+        <v>37.12</v>
+      </c>
+      <c r="GK23" t="n">
+        <v>40.68</v>
+      </c>
+      <c r="GL23" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="GM23" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="GN23" t="n">
+        <v>78.41</v>
+      </c>
+      <c r="GO23" t="inlineStr">
+        <is>
+          <t>92002_0022</t>
+        </is>
+      </c>
+      <c r="GP23" t="inlineStr">
+        <is>
+          <t>92002_22</t>
+        </is>
+      </c>
+      <c r="GQ23" t="inlineStr">
+        <is>
+          <t>022 CENTRE DE LOISIRS DU PARC HELLER</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -11849,6 +12549,36 @@
       <c r="GG24" t="inlineStr"/>
       <c r="GH24" t="inlineStr"/>
       <c r="GI24" t="inlineStr"/>
+      <c r="GJ24" t="n">
+        <v>50.19</v>
+      </c>
+      <c r="GK24" t="n">
+        <v>21</v>
+      </c>
+      <c r="GL24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="GM24" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="GN24" t="n">
+        <v>66.63</v>
+      </c>
+      <c r="GO24" t="inlineStr">
+        <is>
+          <t>92002_0023</t>
+        </is>
+      </c>
+      <c r="GP24" t="inlineStr">
+        <is>
+          <t>92002_23</t>
+        </is>
+      </c>
+      <c r="GQ24" t="inlineStr">
+        <is>
+          <t>023 ECOLE MATERNELLE PAUL BERT PREAU</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -12304,6 +13034,36 @@
       <c r="GG25" t="inlineStr"/>
       <c r="GH25" t="inlineStr"/>
       <c r="GI25" t="inlineStr"/>
+      <c r="GJ25" t="n">
+        <v>34.84</v>
+      </c>
+      <c r="GK25" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="GL25" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="GM25" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="GN25" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="GO25" t="inlineStr">
+        <is>
+          <t>92002_0024</t>
+        </is>
+      </c>
+      <c r="GP25" t="inlineStr">
+        <is>
+          <t>92002_24</t>
+        </is>
+      </c>
+      <c r="GQ25" t="inlineStr">
+        <is>
+          <t>024 ECOLE MAT PAUL BERT REFECTOIRE</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -12759,6 +13519,36 @@
       <c r="GG26" t="inlineStr"/>
       <c r="GH26" t="inlineStr"/>
       <c r="GI26" t="inlineStr"/>
+      <c r="GJ26" t="n">
+        <v>35.99</v>
+      </c>
+      <c r="GK26" t="n">
+        <v>41.54</v>
+      </c>
+      <c r="GL26" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="GM26" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="GN26" t="n">
+        <v>79.54000000000001</v>
+      </c>
+      <c r="GO26" t="inlineStr">
+        <is>
+          <t>92002_0025</t>
+        </is>
+      </c>
+      <c r="GP26" t="inlineStr">
+        <is>
+          <t>92002_25</t>
+        </is>
+      </c>
+      <c r="GQ26" t="inlineStr">
+        <is>
+          <t>025 ECOLE ELEMENTAIRE PAUL BERT PREAU</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -13214,6 +14004,36 @@
       <c r="GG27" t="inlineStr"/>
       <c r="GH27" t="inlineStr"/>
       <c r="GI27" t="inlineStr"/>
+      <c r="GJ27" t="n">
+        <v>38.74</v>
+      </c>
+      <c r="GK27" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="GL27" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="GM27" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="GN27" t="n">
+        <v>73.42</v>
+      </c>
+      <c r="GO27" t="inlineStr">
+        <is>
+          <t>92002_0026</t>
+        </is>
+      </c>
+      <c r="GP27" t="inlineStr">
+        <is>
+          <t>92002_26</t>
+        </is>
+      </c>
+      <c r="GQ27" t="inlineStr">
+        <is>
+          <t>026 ECOLE MAT A PAJEAUD SALLE DE JEUX</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -13669,6 +14489,36 @@
       <c r="GG28" t="inlineStr"/>
       <c r="GH28" t="inlineStr"/>
       <c r="GI28" t="inlineStr"/>
+      <c r="GJ28" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="GK28" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="GL28" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="GM28" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="GN28" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="GO28" t="inlineStr">
+        <is>
+          <t>92002_0027</t>
+        </is>
+      </c>
+      <c r="GP28" t="inlineStr">
+        <is>
+          <t>92002_27</t>
+        </is>
+      </c>
+      <c r="GQ28" t="inlineStr">
+        <is>
+          <t>027 ECOLE ELEM A PAJEAUD REFECTOIRE</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -14124,6 +14974,36 @@
       <c r="GG29" t="inlineStr"/>
       <c r="GH29" t="inlineStr"/>
       <c r="GI29" t="inlineStr"/>
+      <c r="GJ29" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="GK29" t="n">
+        <v>31.81</v>
+      </c>
+      <c r="GL29" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="GM29" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="GN29" t="n">
+        <v>75.66</v>
+      </c>
+      <c r="GO29" t="inlineStr">
+        <is>
+          <t>92002_0028</t>
+        </is>
+      </c>
+      <c r="GP29" t="inlineStr">
+        <is>
+          <t>92002_28</t>
+        </is>
+      </c>
+      <c r="GQ29" t="inlineStr">
+        <is>
+          <t>028 ECOLE MATERNELLE VAL DE BIEVRE</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -14579,6 +15459,36 @@
       <c r="GG30" t="inlineStr"/>
       <c r="GH30" t="inlineStr"/>
       <c r="GI30" t="inlineStr"/>
+      <c r="GJ30" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="GK30" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="GL30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="GM30" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="GN30" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="GO30" t="inlineStr">
+        <is>
+          <t>92002_0029</t>
+        </is>
+      </c>
+      <c r="GP30" t="inlineStr">
+        <is>
+          <t>92002_29</t>
+        </is>
+      </c>
+      <c r="GQ30" t="inlineStr">
+        <is>
+          <t>029 ECOLE ELEM DU NOYER DORE REFECTOI</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -15034,6 +15944,36 @@
       <c r="GG31" t="inlineStr"/>
       <c r="GH31" t="inlineStr"/>
       <c r="GI31" t="inlineStr"/>
+      <c r="GJ31" t="n">
+        <v>66.55</v>
+      </c>
+      <c r="GK31" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="GL31" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="GM31" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="GN31" t="n">
+        <v>61.91</v>
+      </c>
+      <c r="GO31" t="inlineStr">
+        <is>
+          <t>92002_0030</t>
+        </is>
+      </c>
+      <c r="GP31" t="inlineStr">
+        <is>
+          <t>92002_30</t>
+        </is>
+      </c>
+      <c r="GQ31" t="inlineStr">
+        <is>
+          <t>030 ECOLE MATERNELLE ANATOLE FRANCE</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -15489,6 +16429,36 @@
       <c r="GG32" t="inlineStr"/>
       <c r="GH32" t="inlineStr"/>
       <c r="GI32" t="inlineStr"/>
+      <c r="GJ32" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="GK32" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="GL32" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="GM32" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="GN32" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="GO32" t="inlineStr">
+        <is>
+          <t>92002_0031</t>
+        </is>
+      </c>
+      <c r="GP32" t="inlineStr">
+        <is>
+          <t>92002_31</t>
+        </is>
+      </c>
+      <c r="GQ32" t="inlineStr">
+        <is>
+          <t>031 ECOLE ELEMENTAIRE ANATOLE FRANCE</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -15944,6 +16914,36 @@
       <c r="GG33" t="inlineStr"/>
       <c r="GH33" t="inlineStr"/>
       <c r="GI33" t="inlineStr"/>
+      <c r="GJ33" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="GK33" t="n">
+        <v>41.49</v>
+      </c>
+      <c r="GL33" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="GM33" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="GN33" t="n">
+        <v>77.53</v>
+      </c>
+      <c r="GO33" t="inlineStr">
+        <is>
+          <t>92002_0032</t>
+        </is>
+      </c>
+      <c r="GP33" t="inlineStr">
+        <is>
+          <t>92002_32</t>
+        </is>
+      </c>
+      <c r="GQ33" t="inlineStr">
+        <is>
+          <t>032 CONSERVATOIRE DARIUS MILHAUD</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -16399,6 +17399,36 @@
       <c r="GG34" t="inlineStr"/>
       <c r="GH34" t="inlineStr"/>
       <c r="GI34" t="inlineStr"/>
+      <c r="GJ34" t="n">
+        <v>31.92</v>
+      </c>
+      <c r="GK34" t="n">
+        <v>35.21</v>
+      </c>
+      <c r="GL34" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="GM34" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="GN34" t="n">
+        <v>75.09</v>
+      </c>
+      <c r="GO34" t="inlineStr">
+        <is>
+          <t>92002_0033</t>
+        </is>
+      </c>
+      <c r="GP34" t="inlineStr">
+        <is>
+          <t>92002_33</t>
+        </is>
+      </c>
+      <c r="GQ34" t="inlineStr">
+        <is>
+          <t>033 ECOLE MATERNELLE DES RABATS</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -16854,6 +17884,36 @@
       <c r="GG35" t="inlineStr"/>
       <c r="GH35" t="inlineStr"/>
       <c r="GI35" t="inlineStr"/>
+      <c r="GJ35" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="GK35" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="GL35" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="GM35" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="GN35" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="GO35" t="inlineStr">
+        <is>
+          <t>92002_0034</t>
+        </is>
+      </c>
+      <c r="GP35" t="inlineStr">
+        <is>
+          <t>92002_34</t>
+        </is>
+      </c>
+      <c r="GQ35" t="inlineStr">
+        <is>
+          <t>034 ECOLE MATERN DUNOYER DE SEGONZAC</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -17309,6 +18369,36 @@
       <c r="GG36" t="inlineStr"/>
       <c r="GH36" t="inlineStr"/>
       <c r="GI36" t="inlineStr"/>
+      <c r="GJ36" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="GK36" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="GL36" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="GM36" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="GN36" t="n">
+        <v>64.84999999999999</v>
+      </c>
+      <c r="GO36" t="inlineStr">
+        <is>
+          <t>92002_0035</t>
+        </is>
+      </c>
+      <c r="GP36" t="inlineStr">
+        <is>
+          <t>92002_35</t>
+        </is>
+      </c>
+      <c r="GQ36" t="inlineStr">
+        <is>
+          <t>035 ECOLE ELEM DUNOYER DE SEGONZAC</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -17764,6 +18854,36 @@
       <c r="GG37" t="inlineStr"/>
       <c r="GH37" t="inlineStr"/>
       <c r="GI37" t="inlineStr"/>
+      <c r="GJ37" t="n">
+        <v>40.99</v>
+      </c>
+      <c r="GK37" t="n">
+        <v>27.79</v>
+      </c>
+      <c r="GL37" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="GM37" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="GN37" t="n">
+        <v>69.73</v>
+      </c>
+      <c r="GO37" t="inlineStr">
+        <is>
+          <t>92002_0036</t>
+        </is>
+      </c>
+      <c r="GP37" t="inlineStr">
+        <is>
+          <t>92002_36</t>
+        </is>
+      </c>
+      <c r="GQ37" t="inlineStr">
+        <is>
+          <t>036 ECOLE MATERNELLE DES RABATS</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -18219,6 +19339,36 @@
       <c r="GG38" t="inlineStr"/>
       <c r="GH38" t="inlineStr"/>
       <c r="GI38" t="inlineStr"/>
+      <c r="GJ38" t="n">
+        <v>44.28</v>
+      </c>
+      <c r="GK38" t="n">
+        <v>30.76</v>
+      </c>
+      <c r="GL38" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="GM38" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="GN38" t="n">
+        <v>68.36</v>
+      </c>
+      <c r="GO38" t="inlineStr">
+        <is>
+          <t>92002_0037</t>
+        </is>
+      </c>
+      <c r="GP38" t="inlineStr">
+        <is>
+          <t>92002_37</t>
+        </is>
+      </c>
+      <c r="GQ38" t="inlineStr">
+        <is>
+          <t>037 CENTRE ANDRE MALRAUX</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -18674,6 +19824,36 @@
       <c r="GG39" t="inlineStr"/>
       <c r="GH39" t="inlineStr"/>
       <c r="GI39" t="inlineStr"/>
+      <c r="GJ39" t="n">
+        <v>37.57</v>
+      </c>
+      <c r="GK39" t="n">
+        <v>42.46</v>
+      </c>
+      <c r="GL39" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="GM39" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="GN39" t="n">
+        <v>76.98</v>
+      </c>
+      <c r="GO39" t="inlineStr">
+        <is>
+          <t>92002_0038</t>
+        </is>
+      </c>
+      <c r="GP39" t="inlineStr">
+        <is>
+          <t>92002_38</t>
+        </is>
+      </c>
+      <c r="GQ39" t="inlineStr">
+        <is>
+          <t>038 ECOLE ELEMENTAIRE ANDRE PASQUIER</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -19129,6 +20309,36 @@
       <c r="GG40" t="inlineStr"/>
       <c r="GH40" t="inlineStr"/>
       <c r="GI40" t="inlineStr"/>
+      <c r="GJ40" t="n">
+        <v>75.05</v>
+      </c>
+      <c r="GK40" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="GL40" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="GM40" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="GN40" t="n">
+        <v>54.33</v>
+      </c>
+      <c r="GO40" t="inlineStr">
+        <is>
+          <t>92002_0039</t>
+        </is>
+      </c>
+      <c r="GP40" t="inlineStr">
+        <is>
+          <t>92002_39</t>
+        </is>
+      </c>
+      <c r="GQ40" t="inlineStr">
+        <is>
+          <t>039 ECOLE MATERNELLE NOYER DORE</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -19584,6 +20794,36 @@
       <c r="GG41" t="inlineStr"/>
       <c r="GH41" t="inlineStr"/>
       <c r="GI41" t="inlineStr"/>
+      <c r="GJ41" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="GK41" t="n">
+        <v>49.44</v>
+      </c>
+      <c r="GL41" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="GM41" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="GN41" t="n">
+        <v>81.22</v>
+      </c>
+      <c r="GO41" t="inlineStr">
+        <is>
+          <t>92002_0040</t>
+        </is>
+      </c>
+      <c r="GP41" t="inlineStr">
+        <is>
+          <t>92002_40</t>
+        </is>
+      </c>
+      <c r="GQ41" t="inlineStr">
+        <is>
+          <t>040 ECOLE MATERNELLE CHENIER</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -20039,6 +21279,36 @@
       <c r="GG42" t="inlineStr"/>
       <c r="GH42" t="inlineStr"/>
       <c r="GI42" t="inlineStr"/>
+      <c r="GJ42" t="n">
+        <v>25.06</v>
+      </c>
+      <c r="GK42" t="n">
+        <v>51.12</v>
+      </c>
+      <c r="GL42" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="GM42" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="GN42" t="n">
+        <v>82.53</v>
+      </c>
+      <c r="GO42" t="inlineStr">
+        <is>
+          <t>92002_0041</t>
+        </is>
+      </c>
+      <c r="GP42" t="inlineStr">
+        <is>
+          <t>92002_41</t>
+        </is>
+      </c>
+      <c r="GQ42" t="inlineStr">
+        <is>
+          <t>041 ESPACE VASARELY CLUB</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -20494,6 +21764,36 @@
       <c r="GG43" t="inlineStr"/>
       <c r="GH43" t="inlineStr"/>
       <c r="GI43" t="inlineStr"/>
+      <c r="GJ43" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="GK43" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="GL43" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="GM43" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="GN43" t="n">
+        <v>76.69</v>
+      </c>
+      <c r="GO43" t="inlineStr">
+        <is>
+          <t>92002_0042</t>
+        </is>
+      </c>
+      <c r="GP43" t="inlineStr">
+        <is>
+          <t>92002_42</t>
+        </is>
+      </c>
+      <c r="GQ43" t="inlineStr">
+        <is>
+          <t>042 ECOLE ELEM PAUL BERT SALLE POLYVA</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -20949,6 +22249,36 @@
       <c r="GG44" t="inlineStr"/>
       <c r="GH44" t="inlineStr"/>
       <c r="GI44" t="inlineStr"/>
+      <c r="GJ44" t="n">
+        <v>36.78</v>
+      </c>
+      <c r="GK44" t="n">
+        <v>36.38</v>
+      </c>
+      <c r="GL44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="GM44" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="GN44" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="GO44" t="inlineStr">
+        <is>
+          <t>92002_0043</t>
+        </is>
+      </c>
+      <c r="GP44" t="inlineStr">
+        <is>
+          <t>92002_43</t>
+        </is>
+      </c>
+      <c r="GQ44" t="inlineStr">
+        <is>
+          <t>043 GYMNASE DES RABATS</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -21404,6 +22734,36 @@
       <c r="GG45" t="inlineStr"/>
       <c r="GH45" t="inlineStr"/>
       <c r="GI45" t="inlineStr"/>
+      <c r="GJ45" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="GK45" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="GL45" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="GM45" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="GN45" t="n">
+        <v>72.95999999999999</v>
+      </c>
+      <c r="GO45" t="inlineStr">
+        <is>
+          <t>92002_0044</t>
+        </is>
+      </c>
+      <c r="GP45" t="inlineStr">
+        <is>
+          <t>92002_44</t>
+        </is>
+      </c>
+      <c r="GQ45" t="inlineStr">
+        <is>
+          <t>044 GYMNASE DESCARTES</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -21859,6 +23219,36 @@
       <c r="GG46" t="inlineStr"/>
       <c r="GH46" t="inlineStr"/>
       <c r="GI46" t="inlineStr"/>
+      <c r="GJ46" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="GK46" t="n">
+        <v>36.83</v>
+      </c>
+      <c r="GL46" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="GM46" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="GN46" t="n">
+        <v>79.33</v>
+      </c>
+      <c r="GO46" t="inlineStr">
+        <is>
+          <t>92014_0001</t>
+        </is>
+      </c>
+      <c r="GP46" t="inlineStr">
+        <is>
+          <t>92014_1</t>
+        </is>
+      </c>
+      <c r="GQ46" t="inlineStr">
+        <is>
+          <t>LES COLONNES</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -22314,6 +23704,36 @@
       <c r="GG47" t="inlineStr"/>
       <c r="GH47" t="inlineStr"/>
       <c r="GI47" t="inlineStr"/>
+      <c r="GJ47" t="n">
+        <v>32.56</v>
+      </c>
+      <c r="GK47" t="n">
+        <v>43.27</v>
+      </c>
+      <c r="GL47" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="GM47" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="GN47" t="n">
+        <v>77.18000000000001</v>
+      </c>
+      <c r="GO47" t="inlineStr">
+        <is>
+          <t>92014_0002</t>
+        </is>
+      </c>
+      <c r="GP47" t="inlineStr">
+        <is>
+          <t>92014_2</t>
+        </is>
+      </c>
+      <c r="GQ47" t="inlineStr">
+        <is>
+          <t>ESPACE JOSEPH KESSEL</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -22769,6 +24189,36 @@
       <c r="GG48" t="inlineStr"/>
       <c r="GH48" t="inlineStr"/>
       <c r="GI48" t="inlineStr"/>
+      <c r="GJ48" t="n">
+        <v>41.97</v>
+      </c>
+      <c r="GK48" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="GL48" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="GM48" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="GN48" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="GO48" t="inlineStr">
+        <is>
+          <t>92014_0003</t>
+        </is>
+      </c>
+      <c r="GP48" t="inlineStr">
+        <is>
+          <t>92014_3</t>
+        </is>
+      </c>
+      <c r="GQ48" t="inlineStr">
+        <is>
+          <t>LES COLONNES</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -23224,6 +24674,36 @@
       <c r="GG49" t="inlineStr"/>
       <c r="GH49" t="inlineStr"/>
       <c r="GI49" t="inlineStr"/>
+      <c r="GJ49" t="n">
+        <v>45.27</v>
+      </c>
+      <c r="GK49" t="n">
+        <v>34.07</v>
+      </c>
+      <c r="GL49" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="GM49" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="GN49" t="n">
+        <v>75.77</v>
+      </c>
+      <c r="GO49" t="inlineStr">
+        <is>
+          <t>92014_0004</t>
+        </is>
+      </c>
+      <c r="GP49" t="inlineStr">
+        <is>
+          <t>92014_4</t>
+        </is>
+      </c>
+      <c r="GQ49" t="inlineStr">
+        <is>
+          <t>L AGOREINE</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -23679,6 +25159,36 @@
       <c r="GG50" t="inlineStr"/>
       <c r="GH50" t="inlineStr"/>
       <c r="GI50" t="inlineStr"/>
+      <c r="GJ50" t="n">
+        <v>55.17</v>
+      </c>
+      <c r="GK50" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="GL50" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="GM50" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="GN50" t="n">
+        <v>60.43</v>
+      </c>
+      <c r="GO50" t="inlineStr">
+        <is>
+          <t>92014_0005</t>
+        </is>
+      </c>
+      <c r="GP50" t="inlineStr">
+        <is>
+          <t>92014_5</t>
+        </is>
+      </c>
+      <c r="GQ50" t="inlineStr">
+        <is>
+          <t>ECOLE MATERNELLE BAS COQUARTS</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -24134,6 +25644,36 @@
       <c r="GG51" t="inlineStr"/>
       <c r="GH51" t="inlineStr"/>
       <c r="GI51" t="inlineStr"/>
+      <c r="GJ51" t="n">
+        <v>39.17</v>
+      </c>
+      <c r="GK51" t="n">
+        <v>38.32</v>
+      </c>
+      <c r="GL51" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="GM51" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="GN51" t="n">
+        <v>81.66</v>
+      </c>
+      <c r="GO51" t="inlineStr">
+        <is>
+          <t>92014_0006</t>
+        </is>
+      </c>
+      <c r="GP51" t="inlineStr">
+        <is>
+          <t>92014_6</t>
+        </is>
+      </c>
+      <c r="GQ51" t="inlineStr">
+        <is>
+          <t>ECOLE MATERNELLE FAIENCERIE</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -24589,6 +26129,36 @@
       <c r="GG52" t="inlineStr"/>
       <c r="GH52" t="inlineStr"/>
       <c r="GI52" t="inlineStr"/>
+      <c r="GJ52" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="GK52" t="n">
+        <v>37.53</v>
+      </c>
+      <c r="GL52" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="GM52" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="GN52" t="n">
+        <v>80.23</v>
+      </c>
+      <c r="GO52" t="inlineStr">
+        <is>
+          <t>92014_0007</t>
+        </is>
+      </c>
+      <c r="GP52" t="inlineStr">
+        <is>
+          <t>92014_7</t>
+        </is>
+      </c>
+      <c r="GQ52" t="inlineStr">
+        <is>
+          <t>CENTRE DE LOISIRS MATERNEL</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -25044,6 +26614,36 @@
       <c r="GG53" t="inlineStr"/>
       <c r="GH53" t="inlineStr"/>
       <c r="GI53" t="inlineStr"/>
+      <c r="GJ53" t="n">
+        <v>42.15</v>
+      </c>
+      <c r="GK53" t="n">
+        <v>35.67</v>
+      </c>
+      <c r="GL53" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="GM53" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="GN53" t="n">
+        <v>75.69</v>
+      </c>
+      <c r="GO53" t="inlineStr">
+        <is>
+          <t>92014_0008</t>
+        </is>
+      </c>
+      <c r="GP53" t="inlineStr">
+        <is>
+          <t>92014_8</t>
+        </is>
+      </c>
+      <c r="GQ53" t="inlineStr">
+        <is>
+          <t>ECOLE PRIMAIRE FAIENCERIE</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -25499,6 +27099,36 @@
       <c r="GG54" t="inlineStr"/>
       <c r="GH54" t="inlineStr"/>
       <c r="GI54" t="inlineStr"/>
+      <c r="GJ54" t="n">
+        <v>37.82</v>
+      </c>
+      <c r="GK54" t="n">
+        <v>40.51</v>
+      </c>
+      <c r="GL54" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="GM54" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="GN54" t="n">
+        <v>81.51000000000001</v>
+      </c>
+      <c r="GO54" t="inlineStr">
+        <is>
+          <t>92014_0009</t>
+        </is>
+      </c>
+      <c r="GP54" t="inlineStr">
+        <is>
+          <t>92014_9</t>
+        </is>
+      </c>
+      <c r="GQ54" t="inlineStr">
+        <is>
+          <t>ECOLE PRIMAIRE FAIENCERIE</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -25954,6 +27584,36 @@
       <c r="GG55" t="inlineStr"/>
       <c r="GH55" t="inlineStr"/>
       <c r="GI55" t="inlineStr"/>
+      <c r="GJ55" t="n">
+        <v>29</v>
+      </c>
+      <c r="GK55" t="n">
+        <v>47.14</v>
+      </c>
+      <c r="GL55" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="GM55" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="GN55" t="n">
+        <v>79.73</v>
+      </c>
+      <c r="GO55" t="inlineStr">
+        <is>
+          <t>92014_0010</t>
+        </is>
+      </c>
+      <c r="GP55" t="inlineStr">
+        <is>
+          <t>92014_10</t>
+        </is>
+      </c>
+      <c r="GQ55" t="inlineStr">
+        <is>
+          <t>ECOLE PRIMAIRE REPUBLIQUE</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -26409,6 +28069,36 @@
       <c r="GG56" t="inlineStr"/>
       <c r="GH56" t="inlineStr"/>
       <c r="GI56" t="inlineStr"/>
+      <c r="GJ56" t="n">
+        <v>32.21</v>
+      </c>
+      <c r="GK56" t="n">
+        <v>44.55</v>
+      </c>
+      <c r="GL56" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="GM56" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="GN56" t="n">
+        <v>79.72</v>
+      </c>
+      <c r="GO56" t="inlineStr">
+        <is>
+          <t>92014_0011</t>
+        </is>
+      </c>
+      <c r="GP56" t="inlineStr">
+        <is>
+          <t>92014_11</t>
+        </is>
+      </c>
+      <c r="GQ56" t="inlineStr">
+        <is>
+          <t>RESIDENCE DE LA VALLEE</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -26864,6 +28554,36 @@
       <c r="GG57" t="inlineStr"/>
       <c r="GH57" t="inlineStr"/>
       <c r="GI57" t="inlineStr"/>
+      <c r="GJ57" t="n">
+        <v>38.62</v>
+      </c>
+      <c r="GK57" t="n">
+        <v>43.17</v>
+      </c>
+      <c r="GL57" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="GM57" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="GN57" t="n">
+        <v>81.23999999999999</v>
+      </c>
+      <c r="GO57" t="inlineStr">
+        <is>
+          <t>92014_0012</t>
+        </is>
+      </c>
+      <c r="GP57" t="inlineStr">
+        <is>
+          <t>92014_12</t>
+        </is>
+      </c>
+      <c r="GQ57" t="inlineStr">
+        <is>
+          <t>MATERNELLE FONTAINE GRELOT</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -27319,6 +29039,36 @@
       <c r="GG58" t="inlineStr"/>
       <c r="GH58" t="inlineStr"/>
       <c r="GI58" t="inlineStr"/>
+      <c r="GJ58" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="GK58" t="n">
+        <v>45.86</v>
+      </c>
+      <c r="GL58" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="GM58" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="GN58" t="n">
+        <v>81.87</v>
+      </c>
+      <c r="GO58" t="inlineStr">
+        <is>
+          <t>92014_0013</t>
+        </is>
+      </c>
+      <c r="GP58" t="inlineStr">
+        <is>
+          <t>92014_13</t>
+        </is>
+      </c>
+      <c r="GQ58" t="inlineStr">
+        <is>
+          <t>MATERNELLE FONTAINE GRELOT</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -27774,6 +29524,36 @@
       <c r="GG59" t="inlineStr"/>
       <c r="GH59" t="inlineStr"/>
       <c r="GI59" t="inlineStr"/>
+      <c r="GJ59" t="n">
+        <v>37.87</v>
+      </c>
+      <c r="GK59" t="n">
+        <v>42.77</v>
+      </c>
+      <c r="GL59" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="GM59" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="GN59" t="n">
+        <v>80.53</v>
+      </c>
+      <c r="GO59" t="inlineStr">
+        <is>
+          <t>92014_0014</t>
+        </is>
+      </c>
+      <c r="GP59" t="inlineStr">
+        <is>
+          <t>92014_14</t>
+        </is>
+      </c>
+      <c r="GQ59" t="inlineStr">
+        <is>
+          <t>SALLE FRANCOISE DOLTO</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -28229,6 +30009,36 @@
       <c r="GG60" t="inlineStr"/>
       <c r="GH60" t="inlineStr"/>
       <c r="GI60" t="inlineStr"/>
+      <c r="GJ60" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="GK60" t="n">
+        <v>42.94</v>
+      </c>
+      <c r="GL60" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="GM60" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="GN60" t="n">
+        <v>78.58</v>
+      </c>
+      <c r="GO60" t="inlineStr">
+        <is>
+          <t>92019_0001</t>
+        </is>
+      </c>
+      <c r="GP60" t="inlineStr">
+        <is>
+          <t>92019_1</t>
+        </is>
+      </c>
+      <c r="GQ60" t="inlineStr">
+        <is>
+          <t>HOTEL DE VILLE</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -28684,6 +30494,36 @@
       <c r="GG61" t="inlineStr"/>
       <c r="GH61" t="inlineStr"/>
       <c r="GI61" t="inlineStr"/>
+      <c r="GJ61" t="n">
+        <v>33.98</v>
+      </c>
+      <c r="GK61" t="n">
+        <v>44.53</v>
+      </c>
+      <c r="GL61" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="GM61" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="GN61" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="GO61" t="inlineStr">
+        <is>
+          <t>92019_0002</t>
+        </is>
+      </c>
+      <c r="GP61" t="inlineStr">
+        <is>
+          <t>92019_2</t>
+        </is>
+      </c>
+      <c r="GQ61" t="inlineStr">
+        <is>
+          <t>ECOLE ELEMENTAIRE PIERRE BROSSOLETTE</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -29139,6 +30979,36 @@
       <c r="GG62" t="inlineStr"/>
       <c r="GH62" t="inlineStr"/>
       <c r="GI62" t="inlineStr"/>
+      <c r="GJ62" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="GK62" t="n">
+        <v>42.32</v>
+      </c>
+      <c r="GL62" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="GM62" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="GN62" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="GO62" t="inlineStr">
+        <is>
+          <t>92019_0003</t>
+        </is>
+      </c>
+      <c r="GP62" t="inlineStr">
+        <is>
+          <t>92019_3</t>
+        </is>
+      </c>
+      <c r="GQ62" t="inlineStr">
+        <is>
+          <t>GYMNASE PIERRE BROSSOLETTE</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -29594,6 +31464,36 @@
       <c r="GG63" t="inlineStr"/>
       <c r="GH63" t="inlineStr"/>
       <c r="GI63" t="inlineStr"/>
+      <c r="GJ63" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="GK63" t="n">
+        <v>37.14</v>
+      </c>
+      <c r="GL63" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="GM63" t="n">
+        <v>19.82</v>
+      </c>
+      <c r="GN63" t="n">
+        <v>73.45</v>
+      </c>
+      <c r="GO63" t="inlineStr">
+        <is>
+          <t>92019_0004</t>
+        </is>
+      </c>
+      <c r="GP63" t="inlineStr">
+        <is>
+          <t>92019_4</t>
+        </is>
+      </c>
+      <c r="GQ63" t="inlineStr">
+        <is>
+          <t>ECOLE MATERNELLE PIERRE BROSSOLETTE</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -30049,6 +31949,36 @@
       <c r="GG64" t="inlineStr"/>
       <c r="GH64" t="inlineStr"/>
       <c r="GI64" t="inlineStr"/>
+      <c r="GJ64" t="n">
+        <v>32.46</v>
+      </c>
+      <c r="GK64" t="n">
+        <v>38.08</v>
+      </c>
+      <c r="GL64" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="GM64" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="GN64" t="n">
+        <v>73.95999999999999</v>
+      </c>
+      <c r="GO64" t="inlineStr">
+        <is>
+          <t>92019_0005</t>
+        </is>
+      </c>
+      <c r="GP64" t="inlineStr">
+        <is>
+          <t>92019_5</t>
+        </is>
+      </c>
+      <c r="GQ64" t="inlineStr">
+        <is>
+          <t>ECOLE PIERRE MENDES FRANCE</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -30504,6 +32434,36 @@
       <c r="GG65" t="inlineStr"/>
       <c r="GH65" t="inlineStr"/>
       <c r="GI65" t="inlineStr"/>
+      <c r="GJ65" t="n">
+        <v>34.67</v>
+      </c>
+      <c r="GK65" t="n">
+        <v>39.74</v>
+      </c>
+      <c r="GL65" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="GM65" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="GN65" t="n">
+        <v>70.65000000000001</v>
+      </c>
+      <c r="GO65" t="inlineStr">
+        <is>
+          <t>92019_0006</t>
+        </is>
+      </c>
+      <c r="GP65" t="inlineStr">
+        <is>
+          <t>92019_6</t>
+        </is>
+      </c>
+      <c r="GQ65" t="inlineStr">
+        <is>
+          <t>ECOLE PIERRE MENDES FRANCE</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -30959,6 +32919,36 @@
       <c r="GG66" t="inlineStr"/>
       <c r="GH66" t="inlineStr"/>
       <c r="GI66" t="inlineStr"/>
+      <c r="GJ66" t="n">
+        <v>49.55</v>
+      </c>
+      <c r="GK66" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="GL66" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="GM66" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="GN66" t="n">
+        <v>59.35</v>
+      </c>
+      <c r="GO66" t="inlineStr">
+        <is>
+          <t>92019_0007</t>
+        </is>
+      </c>
+      <c r="GP66" t="inlineStr">
+        <is>
+          <t>92019_7</t>
+        </is>
+      </c>
+      <c r="GQ66" t="inlineStr">
+        <is>
+          <t>ECOLE MATERNELLE THOMAS MASARYK</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -31414,6 +33404,36 @@
       <c r="GG67" t="inlineStr"/>
       <c r="GH67" t="inlineStr"/>
       <c r="GI67" t="inlineStr"/>
+      <c r="GJ67" t="n">
+        <v>57.42</v>
+      </c>
+      <c r="GK67" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="GL67" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="GM67" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="GN67" t="n">
+        <v>51.38</v>
+      </c>
+      <c r="GO67" t="inlineStr">
+        <is>
+          <t>92019_0008</t>
+        </is>
+      </c>
+      <c r="GP67" t="inlineStr">
+        <is>
+          <t>92019_8</t>
+        </is>
+      </c>
+      <c r="GQ67" t="inlineStr">
+        <is>
+          <t>CRECHE MAGDELEINE RENDU</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -31869,6 +33889,36 @@
       <c r="GG68" t="inlineStr"/>
       <c r="GH68" t="inlineStr"/>
       <c r="GI68" t="inlineStr"/>
+      <c r="GJ68" t="n">
+        <v>46.74</v>
+      </c>
+      <c r="GK68" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="GL68" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="GM68" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="GN68" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="GO68" t="inlineStr">
+        <is>
+          <t>92019_0009</t>
+        </is>
+      </c>
+      <c r="GP68" t="inlineStr">
+        <is>
+          <t>92019_9</t>
+        </is>
+      </c>
+      <c r="GQ68" t="inlineStr">
+        <is>
+          <t>ECOLE LEONARD DE VINCI</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -32324,6 +34374,36 @@
       <c r="GG69" t="inlineStr"/>
       <c r="GH69" t="inlineStr"/>
       <c r="GI69" t="inlineStr"/>
+      <c r="GJ69" t="n">
+        <v>36.95</v>
+      </c>
+      <c r="GK69" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="GL69" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="GM69" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="GN69" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="GO69" t="inlineStr">
+        <is>
+          <t>92019_0010</t>
+        </is>
+      </c>
+      <c r="GP69" t="inlineStr">
+        <is>
+          <t>92019_10</t>
+        </is>
+      </c>
+      <c r="GQ69" t="inlineStr">
+        <is>
+          <t>ECOLE JEAN JAURES</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -32779,6 +34859,36 @@
       <c r="GG70" t="inlineStr"/>
       <c r="GH70" t="inlineStr"/>
       <c r="GI70" t="inlineStr"/>
+      <c r="GJ70" t="n">
+        <v>37.03</v>
+      </c>
+      <c r="GK70" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="GL70" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="GM70" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="GN70" t="n">
+        <v>75.61</v>
+      </c>
+      <c r="GO70" t="inlineStr">
+        <is>
+          <t>92019_0011</t>
+        </is>
+      </c>
+      <c r="GP70" t="inlineStr">
+        <is>
+          <t>92019_11</t>
+        </is>
+      </c>
+      <c r="GQ70" t="inlineStr">
+        <is>
+          <t>ECOLE JEAN JAURES</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -33234,6 +35344,36 @@
       <c r="GG71" t="inlineStr"/>
       <c r="GH71" t="inlineStr"/>
       <c r="GI71" t="inlineStr"/>
+      <c r="GJ71" t="n">
+        <v>55.07</v>
+      </c>
+      <c r="GK71" t="n">
+        <v>27.87</v>
+      </c>
+      <c r="GL71" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="GM71" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="GN71" t="n">
+        <v>67.63</v>
+      </c>
+      <c r="GO71" t="inlineStr">
+        <is>
+          <t>92019_0012</t>
+        </is>
+      </c>
+      <c r="GP71" t="inlineStr">
+        <is>
+          <t>92019_12</t>
+        </is>
+      </c>
+      <c r="GQ71" t="inlineStr">
+        <is>
+          <t>ECOLE JULES VERNE</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -33689,6 +35829,36 @@
       <c r="GG72" t="inlineStr"/>
       <c r="GH72" t="inlineStr"/>
       <c r="GI72" t="inlineStr"/>
+      <c r="GJ72" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="GK72" t="n">
+        <v>32.91</v>
+      </c>
+      <c r="GL72" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="GM72" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="GN72" t="n">
+        <v>70.18000000000001</v>
+      </c>
+      <c r="GO72" t="inlineStr">
+        <is>
+          <t>92019_0013</t>
+        </is>
+      </c>
+      <c r="GP72" t="inlineStr">
+        <is>
+          <t>92019_13</t>
+        </is>
+      </c>
+      <c r="GQ72" t="inlineStr">
+        <is>
+          <t>ECOLE JULES VERNE</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -34144,6 +36314,36 @@
       <c r="GG73" t="inlineStr"/>
       <c r="GH73" t="inlineStr"/>
       <c r="GI73" t="inlineStr"/>
+      <c r="GJ73" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="GK73" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="GL73" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="GM73" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="GN73" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="GO73" t="inlineStr">
+        <is>
+          <t>92019_0014</t>
+        </is>
+      </c>
+      <c r="GP73" t="inlineStr">
+        <is>
+          <t>92019_14</t>
+        </is>
+      </c>
+      <c r="GQ73" t="inlineStr">
+        <is>
+          <t>ECOLE JULES VERNE</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -34599,6 +36799,36 @@
       <c r="GG74" t="inlineStr"/>
       <c r="GH74" t="inlineStr"/>
       <c r="GI74" t="inlineStr"/>
+      <c r="GJ74" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="GK74" t="n">
+        <v>47.92</v>
+      </c>
+      <c r="GL74" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="GM74" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="GN74" t="n">
+        <v>80.77</v>
+      </c>
+      <c r="GO74" t="inlineStr">
+        <is>
+          <t>92019_0015</t>
+        </is>
+      </c>
+      <c r="GP74" t="inlineStr">
+        <is>
+          <t>92019_15</t>
+        </is>
+      </c>
+      <c r="GQ74" t="inlineStr">
+        <is>
+          <t>COLLEGE PIERRE BROSSOLETTE</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -35054,6 +37284,36 @@
       <c r="GG75" t="inlineStr"/>
       <c r="GH75" t="inlineStr"/>
       <c r="GI75" t="inlineStr"/>
+      <c r="GJ75" t="n">
+        <v>38.62</v>
+      </c>
+      <c r="GK75" t="n">
+        <v>38.87</v>
+      </c>
+      <c r="GL75" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="GM75" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="GN75" t="n">
+        <v>77.31999999999999</v>
+      </c>
+      <c r="GO75" t="inlineStr">
+        <is>
+          <t>92019_0016</t>
+        </is>
+      </c>
+      <c r="GP75" t="inlineStr">
+        <is>
+          <t>92019_16</t>
+        </is>
+      </c>
+      <c r="GQ75" t="inlineStr">
+        <is>
+          <t>ECOLE MATERNELLE DES MOUILLEBOEUFS</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -35509,6 +37769,36 @@
       <c r="GG76" t="inlineStr"/>
       <c r="GH76" t="inlineStr"/>
       <c r="GI76" t="inlineStr"/>
+      <c r="GJ76" t="n">
+        <v>35.46</v>
+      </c>
+      <c r="GK76" t="n">
+        <v>40.57</v>
+      </c>
+      <c r="GL76" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="GM76" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="GN76" t="n">
+        <v>77.87</v>
+      </c>
+      <c r="GO76" t="inlineStr">
+        <is>
+          <t>92019_0017</t>
+        </is>
+      </c>
+      <c r="GP76" t="inlineStr">
+        <is>
+          <t>92019_17</t>
+        </is>
+      </c>
+      <c r="GQ76" t="inlineStr">
+        <is>
+          <t>ECOLE PIERRE BROSSOLETTE MATERNELLE</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -35964,6 +38254,36 @@
       <c r="GG77" t="inlineStr"/>
       <c r="GH77" t="inlineStr"/>
       <c r="GI77" t="inlineStr"/>
+      <c r="GJ77" t="n">
+        <v>57.27</v>
+      </c>
+      <c r="GK77" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="GL77" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="GM77" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="GN77" t="n">
+        <v>56.86</v>
+      </c>
+      <c r="GO77" t="inlineStr">
+        <is>
+          <t>92019_0018</t>
+        </is>
+      </c>
+      <c r="GP77" t="inlineStr">
+        <is>
+          <t>92019_18</t>
+        </is>
+      </c>
+      <c r="GQ77" t="inlineStr">
+        <is>
+          <t>CENTRE DE LOISIRS SUZANNE BUISSON</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -36419,6 +38739,36 @@
       <c r="GG78" t="inlineStr"/>
       <c r="GH78" t="inlineStr"/>
       <c r="GI78" t="inlineStr"/>
+      <c r="GJ78" t="n">
+        <v>39.86</v>
+      </c>
+      <c r="GK78" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="GL78" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="GM78" t="n">
+        <v>17.91</v>
+      </c>
+      <c r="GN78" t="n">
+        <v>72.34</v>
+      </c>
+      <c r="GO78" t="inlineStr">
+        <is>
+          <t>92019_0019</t>
+        </is>
+      </c>
+      <c r="GP78" t="inlineStr">
+        <is>
+          <t>92019_19</t>
+        </is>
+      </c>
+      <c r="GQ78" t="inlineStr">
+        <is>
+          <t>ECOLE PIERRE MENDES FRANCE</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -36874,6 +39224,32 @@
       <c r="GG79" t="inlineStr"/>
       <c r="GH79" t="inlineStr"/>
       <c r="GI79" t="inlineStr"/>
+      <c r="GJ79" t="n">
+        <v>58.25</v>
+      </c>
+      <c r="GK79" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="GL79" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="GM79" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="GN79" t="n">
+        <v>62.97</v>
+      </c>
+      <c r="GO79" t="inlineStr">
+        <is>
+          <t>92019_0020</t>
+        </is>
+      </c>
+      <c r="GP79" t="inlineStr">
+        <is>
+          <t>92019_20</t>
+        </is>
+      </c>
+      <c r="GQ79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -37329,6 +39705,36 @@
       <c r="GG80" t="inlineStr"/>
       <c r="GH80" t="inlineStr"/>
       <c r="GI80" t="inlineStr"/>
+      <c r="GJ80" t="n">
+        <v>27.97</v>
+      </c>
+      <c r="GK80" t="n">
+        <v>48.74</v>
+      </c>
+      <c r="GL80" t="n">
+        <v>9</v>
+      </c>
+      <c r="GM80" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="GN80" t="n">
+        <v>78.76000000000001</v>
+      </c>
+      <c r="GO80" t="inlineStr">
+        <is>
+          <t>92071_0001</t>
+        </is>
+      </c>
+      <c r="GP80" t="inlineStr">
+        <is>
+          <t>92071_1</t>
+        </is>
+      </c>
+      <c r="GQ80" t="inlineStr">
+        <is>
+          <t>HOTEL DE VILLE</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -37784,6 +40190,36 @@
       <c r="GG81" t="inlineStr"/>
       <c r="GH81" t="inlineStr"/>
       <c r="GI81" t="inlineStr"/>
+      <c r="GJ81" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="GK81" t="n">
+        <v>41.05</v>
+      </c>
+      <c r="GL81" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="GM81" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="GN81" t="n">
+        <v>77</v>
+      </c>
+      <c r="GO81" t="inlineStr">
+        <is>
+          <t>92071_0002</t>
+        </is>
+      </c>
+      <c r="GP81" t="inlineStr">
+        <is>
+          <t>92071_2</t>
+        </is>
+      </c>
+      <c r="GQ81" t="inlineStr">
+        <is>
+          <t>ECOLE MATERNELLE DU CENTRE</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -38239,6 +40675,36 @@
       <c r="GG82" t="inlineStr"/>
       <c r="GH82" t="inlineStr"/>
       <c r="GI82" t="inlineStr"/>
+      <c r="GJ82" t="n">
+        <v>35.53</v>
+      </c>
+      <c r="GK82" t="n">
+        <v>44.52</v>
+      </c>
+      <c r="GL82" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="GM82" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="GN82" t="n">
+        <v>75.16</v>
+      </c>
+      <c r="GO82" t="inlineStr">
+        <is>
+          <t>92071_0003</t>
+        </is>
+      </c>
+      <c r="GP82" t="inlineStr">
+        <is>
+          <t>92071_3</t>
+        </is>
+      </c>
+      <c r="GQ82" t="inlineStr">
+        <is>
+          <t>ECOLE ELEMENTAIRE DU CENTRE</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -38694,6 +41160,36 @@
       <c r="GG83" t="inlineStr"/>
       <c r="GH83" t="inlineStr"/>
       <c r="GI83" t="inlineStr"/>
+      <c r="GJ83" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="GK83" t="n">
+        <v>51.67</v>
+      </c>
+      <c r="GL83" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="GM83" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="GN83" t="n">
+        <v>79.37</v>
+      </c>
+      <c r="GO83" t="inlineStr">
+        <is>
+          <t>92071_0004</t>
+        </is>
+      </c>
+      <c r="GP83" t="inlineStr">
+        <is>
+          <t>92071_4</t>
+        </is>
+      </c>
+      <c r="GQ83" t="inlineStr">
+        <is>
+          <t>LOCAUX D ACTIVITES</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -39149,6 +41645,36 @@
       <c r="GG84" t="inlineStr"/>
       <c r="GH84" t="inlineStr"/>
       <c r="GI84" t="inlineStr"/>
+      <c r="GJ84" t="n">
+        <v>30.37</v>
+      </c>
+      <c r="GK84" t="n">
+        <v>50.85</v>
+      </c>
+      <c r="GL84" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="GM84" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="GN84" t="n">
+        <v>76.73</v>
+      </c>
+      <c r="GO84" t="inlineStr">
+        <is>
+          <t>92071_0005</t>
+        </is>
+      </c>
+      <c r="GP84" t="inlineStr">
+        <is>
+          <t>92071_5</t>
+        </is>
+      </c>
+      <c r="GQ84" t="inlineStr">
+        <is>
+          <t>ANCIENNE MAIRIE</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -39604,6 +42130,36 @@
       <c r="GG85" t="inlineStr"/>
       <c r="GH85" t="inlineStr"/>
       <c r="GI85" t="inlineStr"/>
+      <c r="GJ85" t="n">
+        <v>38.75</v>
+      </c>
+      <c r="GK85" t="n">
+        <v>41.45</v>
+      </c>
+      <c r="GL85" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="GM85" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="GN85" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="GO85" t="inlineStr">
+        <is>
+          <t>92071_0006</t>
+        </is>
+      </c>
+      <c r="GP85" t="inlineStr">
+        <is>
+          <t>92071_6</t>
+        </is>
+      </c>
+      <c r="GQ85" t="inlineStr">
+        <is>
+          <t>HALLE DES BLAGIS</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -40059,6 +42615,36 @@
       <c r="GG86" t="inlineStr"/>
       <c r="GH86" t="inlineStr"/>
       <c r="GI86" t="inlineStr"/>
+      <c r="GJ86" t="n">
+        <v>53.53</v>
+      </c>
+      <c r="GK86" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="GL86" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="GM86" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="GN86" t="n">
+        <v>57.97</v>
+      </c>
+      <c r="GO86" t="inlineStr">
+        <is>
+          <t>92071_0007</t>
+        </is>
+      </c>
+      <c r="GP86" t="inlineStr">
+        <is>
+          <t>92071_7</t>
+        </is>
+      </c>
+      <c r="GQ86" t="inlineStr">
+        <is>
+          <t>HALLE DES BLAGIS</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -40514,6 +43100,36 @@
       <c r="GG87" t="inlineStr"/>
       <c r="GH87" t="inlineStr"/>
       <c r="GI87" t="inlineStr"/>
+      <c r="GJ87" t="n">
+        <v>31.76</v>
+      </c>
+      <c r="GK87" t="n">
+        <v>49.52</v>
+      </c>
+      <c r="GL87" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="GM87" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="GN87" t="n">
+        <v>78.70999999999999</v>
+      </c>
+      <c r="GO87" t="inlineStr">
+        <is>
+          <t>92071_0008</t>
+        </is>
+      </c>
+      <c r="GP87" t="inlineStr">
+        <is>
+          <t>92071_8</t>
+        </is>
+      </c>
+      <c r="GQ87" t="inlineStr">
+        <is>
+          <t>ECOLE DU PETIT CHAMBORD</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -40969,6 +43585,36 @@
       <c r="GG88" t="inlineStr"/>
       <c r="GH88" t="inlineStr"/>
       <c r="GI88" t="inlineStr"/>
+      <c r="GJ88" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="GK88" t="n">
+        <v>42.78</v>
+      </c>
+      <c r="GL88" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="GM88" t="n">
+        <v>16.88</v>
+      </c>
+      <c r="GN88" t="n">
+        <v>74.62</v>
+      </c>
+      <c r="GO88" t="inlineStr">
+        <is>
+          <t>92071_0009</t>
+        </is>
+      </c>
+      <c r="GP88" t="inlineStr">
+        <is>
+          <t>92071_9</t>
+        </is>
+      </c>
+      <c r="GQ88" t="inlineStr">
+        <is>
+          <t>CENTRE MATERNEL DES CLOS ST MARCEL</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -41424,6 +44070,36 @@
       <c r="GG89" t="inlineStr"/>
       <c r="GH89" t="inlineStr"/>
       <c r="GI89" t="inlineStr"/>
+      <c r="GJ89" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="GK89" t="n">
+        <v>48.49</v>
+      </c>
+      <c r="GL89" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="GM89" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="GN89" t="n">
+        <v>76.97</v>
+      </c>
+      <c r="GO89" t="inlineStr">
+        <is>
+          <t>92071_0010</t>
+        </is>
+      </c>
+      <c r="GP89" t="inlineStr">
+        <is>
+          <t>92071_10</t>
+        </is>
+      </c>
+      <c r="GQ89" t="inlineStr">
+        <is>
+          <t>LOCAUX D ACTIVITES</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -41879,6 +44555,36 @@
       <c r="GG90" t="inlineStr"/>
       <c r="GH90" t="inlineStr"/>
       <c r="GI90" t="inlineStr"/>
+      <c r="GJ90" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="GK90" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="GL90" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="GM90" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="GN90" t="n">
+        <v>72.55</v>
+      </c>
+      <c r="GO90" t="inlineStr">
+        <is>
+          <t>92071_0011</t>
+        </is>
+      </c>
+      <c r="GP90" t="inlineStr">
+        <is>
+          <t>92071_11</t>
+        </is>
+      </c>
+      <c r="GQ90" t="inlineStr">
+        <is>
+          <t>ANCIENNE MAIRIE</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -42334,6 +45040,36 @@
       <c r="GG91" t="inlineStr"/>
       <c r="GH91" t="inlineStr"/>
       <c r="GI91" t="inlineStr"/>
+      <c r="GJ91" t="n">
+        <v>31.04</v>
+      </c>
+      <c r="GK91" t="n">
+        <v>46.21</v>
+      </c>
+      <c r="GL91" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="GM91" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="GN91" t="n">
+        <v>77.87</v>
+      </c>
+      <c r="GO91" t="inlineStr">
+        <is>
+          <t>92071_0012</t>
+        </is>
+      </c>
+      <c r="GP91" t="inlineStr">
+        <is>
+          <t>92071_12</t>
+        </is>
+      </c>
+      <c r="GQ91" t="inlineStr">
+        <is>
+          <t>ECOLE DU PETIT CHAMBORD</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -42789,6 +45525,36 @@
       <c r="GG92" t="inlineStr"/>
       <c r="GH92" t="inlineStr"/>
       <c r="GI92" t="inlineStr"/>
+      <c r="GJ92" t="n">
+        <v>41.22</v>
+      </c>
+      <c r="GK92" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="GL92" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="GM92" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="GN92" t="n">
+        <v>77.89</v>
+      </c>
+      <c r="GO92" t="inlineStr">
+        <is>
+          <t>92071_0013</t>
+        </is>
+      </c>
+      <c r="GP92" t="inlineStr">
+        <is>
+          <t>92071_13</t>
+        </is>
+      </c>
+      <c r="GQ92" t="inlineStr">
+        <is>
+          <t>ECOLE ELEMENTAIRE DES BLAGIS</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -43244,6 +46010,36 @@
       <c r="GG93" t="inlineStr"/>
       <c r="GH93" t="inlineStr"/>
       <c r="GI93" t="inlineStr"/>
+      <c r="GJ93" t="n">
+        <v>36.19</v>
+      </c>
+      <c r="GK93" t="n">
+        <v>38.65</v>
+      </c>
+      <c r="GL93" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="GM93" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="GN93" t="n">
+        <v>70.70999999999999</v>
+      </c>
+      <c r="GO93" t="inlineStr">
+        <is>
+          <t>92071_0014</t>
+        </is>
+      </c>
+      <c r="GP93" t="inlineStr">
+        <is>
+          <t>92071_14</t>
+        </is>
+      </c>
+      <c r="GQ93" t="inlineStr">
+        <is>
+          <t>ACCUEIL MATERNEL CLOS SAINT MARCEL</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
